--- a/MySQL.xlsx
+++ b/MySQL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yusaku\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yusaku\Desktop\tora3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785AD6BE-2666-4BB8-89CE-54FD44E651A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9EFD14-30A8-48DC-99E1-E5B857E35027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="設定・概念" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="91">
   <si>
     <r>
       <rPr>
@@ -363,19 +363,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パス登録ができているか確認する方法。</t>
-    <rPh sb="2" eb="4">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mysql -V とうってmysqlのバージョンが出てばできている。</t>
     <rPh sb="25" eb="26">
       <t>デ</t>
@@ -691,10 +678,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>-uとか-のついたやつをオプションというが、オプションと値の間はスペースをあけてもあけなくてもよいが、アプリケーションによっては空けないと受け付けないものもあるため空ける癖をつけておいた方がいい。K61</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>またクライアントプログラムも２つ(xampp側ともう一方)あるが、どちらのクライアントプログラムからでもサーバには接続できる。</t>
     <rPh sb="22" eb="23">
       <t>ガワ</t>
@@ -912,70 +895,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>学校の作業は基本的に</t>
-    <rPh sb="0" eb="2">
-      <t>ガッコウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データベース(mysqlではスキーマという)作成はrootユーザで行い</t>
-    <rPh sb="22" eb="24">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>myusrにそのデータベースの操作権限を与える。</t>
-    <rPh sb="15" eb="17">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>アタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dbnameデータベースのすべてのテーブルとビュー、トリガーという意味。つまりdbnameデータベースの全てのテーブルとビューに対してALL操作(以下で説明)を許可するということ。</t>
-    <rPh sb="33" eb="35">
-      <t>イミ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>キョカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(ストアドプロシージャは別コマンドでしか権限が与えられない。昔はトリガーも別コマンドでしか権限があたえられなかったが、今は上記のコマンドで与えられる)</t>
     <rPh sb="30" eb="31">
       <t>ムカシ</t>
@@ -1022,6 +941,78 @@
     </rPh>
     <rPh sb="40" eb="41">
       <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-uとか-のついたやつをオプションというが、オプションと値の間はスペースをあけてもあけなくてもよいが、アプリケーションによっては空けないと受け付けないものもあるため空ける癖をつけておいた方がいい。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学校でのデータベース(mysqlではスキーマという)作成はrootユーザで行い</t>
+    <rPh sb="0" eb="2">
+      <t>ガッコウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rootユーザーでmyusrにそのデータベースの操作権限を与える。</t>
+    <rPh sb="24" eb="26">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>dbnameデータベースのすべてのテーブルとビュー、トリガーという意味。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>つまりdbnameデータベースの全てのテーブルとビューとトリガーに対してALL操作(以下の赤字の操作)を許可するということ。</t>
+    </r>
+    <rPh sb="33" eb="35">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>キョカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1030,7 +1021,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1064,6 +1055,22 @@
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1181,7 +1188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1189,17 +1196,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1329,13 +1335,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>419351</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>95305</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1373,13 +1379,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>142374</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1417,13 +1423,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>472737</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1886,10 +1892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R82"/>
+  <dimension ref="A1:R81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1959,7 +1965,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="B9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1992,52 +1998,40 @@
       <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
       <c r="H14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="8"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="6"/>
-      <c r="C15" s="7" t="s">
+      <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="8"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:18" ht="19.5" thickBot="1">
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="12"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:18">
       <c r="B18" t="s">
@@ -2054,7 +2048,7 @@
     </row>
     <row r="20" spans="1:18">
       <c r="B20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="19.5" thickBot="1">
@@ -2097,92 +2091,68 @@
       <c r="C23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
       <c r="H23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I23" s="8"/>
+      <c r="I23" s="7"/>
       <c r="K23" s="6"/>
       <c r="L23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
       <c r="Q23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="R23" s="8"/>
+      <c r="R23" s="7"/>
     </row>
     <row r="24" spans="1:18" ht="19.5" thickBot="1">
       <c r="B24" s="6"/>
-      <c r="C24" s="13" t="s">
+      <c r="C24" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7" t="s">
+      <c r="H24" t="s">
         <v>26</v>
       </c>
-      <c r="I24" s="8"/>
+      <c r="I24" s="7"/>
       <c r="K24" s="6"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="8"/>
+      <c r="R24" s="7"/>
     </row>
     <row r="25" spans="1:18" ht="19.5" thickBot="1">
       <c r="B25" s="6"/>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="9"/>
+      <c r="G25" s="8"/>
       <c r="H25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I25" s="8"/>
+      <c r="I25" s="7"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="14" t="s">
+      <c r="L25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="9"/>
+      <c r="P25" s="8"/>
       <c r="Q25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="R25" s="8"/>
+      <c r="R25" s="7"/>
     </row>
     <row r="26" spans="1:18" ht="19.5" thickBot="1">
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="12"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="12"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="11"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="11"/>
     </row>
     <row r="27" spans="1:18">
       <c r="B27" t="s">
@@ -2191,17 +2161,17 @@
     </row>
     <row r="28" spans="1:18">
       <c r="B28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:18">
       <c r="B29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:18">
       <c r="B30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2224,29 +2194,37 @@
         <v>32</v>
       </c>
     </row>
+    <row r="35" spans="1:12">
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="36" spans="1:12">
       <c r="B36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="B37" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="B38" t="s">
+      <c r="A38" t="s">
         <v>35</v>
       </c>
     </row>
+    <row r="39" spans="1:12">
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="40" spans="1:12">
-      <c r="A40" t="s">
-        <v>36</v>
+      <c r="B40" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="B41" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="L41" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2256,10 +2234,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="B43" t="s">
-        <v>44</v>
-      </c>
-      <c r="L43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2269,26 +2244,26 @@
     </row>
     <row r="45" spans="1:12">
       <c r="B45" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="B46" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="B47" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="B48" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
-      <c r="B49" t="s">
+    <row r="64" spans="2:2">
+      <c r="B64" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="B65" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2299,50 +2274,49 @@
     </row>
     <row r="67" spans="2:7">
       <c r="B67" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="2:7">
       <c r="B68" t="s">
-        <v>49</v>
+        <v>58</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" t="s">
-        <v>64</v>
+      <c r="D69" s="12" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="2:7">
       <c r="B70" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" t="s">
         <v>59</v>
       </c>
-      <c r="D70" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7">
-      <c r="D71" s="15" t="s">
-        <v>63</v>
-      </c>
+      <c r="F71" s="12"/>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" t="s">
-        <v>50</v>
-      </c>
+      <c r="B72" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F72" s="12"/>
     </row>
     <row r="73" spans="2:7">
       <c r="B73" t="s">
-        <v>60</v>
-      </c>
-      <c r="F73" s="15" t="s">
-        <v>61</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="F73" s="12"/>
     </row>
     <row r="74" spans="2:7">
       <c r="B74" t="s">
-        <v>65</v>
-      </c>
-      <c r="F74" s="15"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="75" spans="2:7">
       <c r="B75" t="s">
@@ -2351,12 +2325,18 @@
     </row>
     <row r="76" spans="2:7">
       <c r="B76" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="2:7">
       <c r="B77" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="E77" t="s">
+        <v>68</v>
+      </c>
+      <c r="G77" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="2:7">
@@ -2364,37 +2344,27 @@
         <v>67</v>
       </c>
       <c r="E78" t="s">
-        <v>70</v>
-      </c>
-      <c r="G78" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="2:7">
       <c r="B79" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E79" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7">
-      <c r="B80" t="s">
-        <v>68</v>
-      </c>
-      <c r="E80" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="258" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2402,20 +2372,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6FE6346-A732-468A-A416-01242EEB8295}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="19.625" customWidth="1"/>
+    <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>87</v>
-      </c>
+      <c r="A1" s="13"/>
       <c r="B1" t="s">
         <v>88</v>
       </c>
@@ -2427,22 +2395,22 @@
     </row>
     <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
         <v>90</v>
@@ -2450,71 +2418,72 @@
     </row>
     <row r="8" spans="1:4">
       <c r="B8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="B10" t="s">
+    <row r="12" spans="1:4">
+      <c r="B12" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="B11" t="s">
+    <row r="13" spans="1:4">
+      <c r="B13" s="14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="B12" t="s">
+    <row r="14" spans="1:4">
+      <c r="B14" s="14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="B13" t="s">
+    <row r="15" spans="1:4">
+      <c r="B15" s="14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="B14" t="s">
+    <row r="16" spans="1:4">
+      <c r="B16" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="B15" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="B16" t="s">
+    <row r="18" spans="2:2">
+      <c r="B18" s="14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="19" spans="2:2">
+      <c r="B19" s="14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
-        <v>83</v>
-      </c>
-    </row>
     <row r="20" spans="2:2">
-      <c r="B20" t="s">
-        <v>83</v>
+      <c r="B20" s="14" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="258" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MySQL.xlsx
+++ b/MySQL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yusaku\Desktop\tora3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDF6DCE-C96A-49D0-829B-B85DE101A986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4857E246-102C-4CD4-9789-FD9A53093DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="設定・概念" sheetId="1" r:id="rId1"/>
@@ -1051,37 +1051,6 @@
       <t>で接続できる。</t>
     </r>
     <rPh sb="31" eb="33">
-      <t>セツゾク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mysql -V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> とうってmysqlのバージョンが出てくれば、mysqlクライアントからmysqlサーバーに接続できている。</t>
-    </r>
-    <rPh sb="25" eb="26">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
       <t>セツゾク</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1260,6 +1229,37 @@
   <si>
     <t>〇MySQLの起動</t>
     <rPh sb="7" eb="9">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mysql -V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> とうってmysqlのバージョンが出てくれば、mysqlクライアントを起動できている。</t>
+    </r>
+    <rPh sb="25" eb="26">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
       <t>キドウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2298,8 +2298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2316,7 +2316,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2343,7 +2343,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2374,7 +2374,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2575,7 +2575,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="B29" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -2585,7 +2585,7 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -2615,12 +2615,12 @@
     </row>
     <row r="37" spans="1:11">
       <c r="B37" s="17" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2679,7 +2679,7 @@
     </row>
     <row r="49" spans="2:16">
       <c r="P49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="2:16">
@@ -2699,7 +2699,7 @@
     </row>
     <row r="67" spans="2:7">
       <c r="B67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="2:7">
@@ -2792,12 +2792,12 @@
     </row>
     <row r="83" spans="2:5">
       <c r="B83" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="2:5">
       <c r="B84" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2918,7 +2918,7 @@
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/MySQL.xlsx
+++ b/MySQL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yusaku\Desktop\tora3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user_7095\Desktop\Rep\tora3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4857E246-102C-4CD4-9789-FD9A53093DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3302815-72E1-4898-9BE2-3056CC6AC289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="設定・概念" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="102">
   <si>
     <t>mysqld.exe</t>
     <phoneticPr fontId="1"/>
@@ -127,10 +130,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C:\Program Files\MySQL\MySQL Server8.4\</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>C:\xampp\mysql\</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -220,32 +219,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>基本的にwindowsのコマンドプロンプトやパワーシェルでmysqlとかphpなどとうってmysql.exeやphp.exyが起動できるのはwindowsが以下の仕組みによってプログラムを探してくれるからです。</t>
-    <rPh sb="0" eb="3">
-      <t>キホンテキ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>シク</t>
-    </rPh>
-    <rPh sb="94" eb="95">
-      <t>サガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プログラム検索のルール</t>
-    <rPh sb="5" eb="7">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">   c:\windows\system</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -296,40 +269,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【windowsキー + R】を押して出てきたボックスにsysdm.cplと打った後【CTRL + SHIFT + ENTER】(←これは管理者権限で起動するやり方、システム環境変数にロックがかかっている場合はこれで編集できるようになる)</t>
-    <rPh sb="16" eb="17">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="69" eb="74">
-      <t>カンリシャケンゲン</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="87" eb="91">
-      <t>カンキョウヘンスウ</t>
-    </rPh>
-    <rPh sb="102" eb="104">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>この場合はクライアントPGはどちらもMySql Server8.4\binの中のものをつかっている。</t>
     <rPh sb="2" eb="4">
       <t>バアイ</t>
@@ -383,9 +322,6 @@
   </si>
   <si>
     <t>mysql -u root</t>
-  </si>
-  <si>
-    <t>mysql -u root</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -439,10 +375,6 @@
   </si>
   <si>
     <t>mysql8.4.bat</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mysql -u root -p root -P 3500</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1123,22 +1055,6 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワード入力するのがめんどくさければ-p の横に書いてもよい。セキュリティ的にはあまりよくないですがまぁめんどくさいですもんね。</t>
-    <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ヨコ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>テキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1264,12 +1180,197 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>C:\Program Files\MySQL\MySQL Server 8.4\</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本的にwindowsのコマンドプロンプトやパワーシェルでmysqlとかphpなどとうってmysql.exeやphp.exeが起動できるのはwindowsが以下の仕組みによってプログラムを探してくれるからです。</t>
+    <rPh sb="0" eb="3">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mysql -u root -proot -P 3500</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ただし-pだけはそのあとパスワードを入力する場合はスペースを空けないというルールがあるため注意。</t>
+    </r>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>パスワード入力するのがめんどくさければ-pの横に書いてもよい。(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>スペースは入れない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)セキュリティ的にはあまりよくないですがまぁめんどくさいですもんね。</t>
+    </r>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※-p rootと間にスペースを入れないこと。また-pだけにしてもよい。その場合パスワード入力画面が表示されるのでrootと入れること。</t>
+    <rPh sb="9" eb="10">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>mysql -u root</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で接続できる</t>
+    </r>
+    <rPh sb="14" eb="16">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【windowsキー + R】を押して出てきたボックスにsysdm.cplと打った後【CTRL + SHIFT + ENTER】(←これは管理者権限で起動する方法。システム環境変数にロックがかかっている場合はこれで編集できるようになる)</t>
+    <rPh sb="16" eb="17">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="69" eb="74">
+      <t>カンリシャケンゲン</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="86" eb="90">
+      <t>カンキョウヘンスウ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;Windowsがプログラム検索する順番&gt;</t>
+    <rPh sb="14" eb="16">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジュンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1349,6 +1450,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1520,13 +1628,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1577,13 +1685,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>428876</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1622,14 +1730,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>31784</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1644,16 +1752,15 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect b="8369"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="695324" y="11334750"/>
-          <a:ext cx="3400425" cy="3794159"/>
+          <a:off x="700087" y="11596689"/>
+          <a:ext cx="3402806" cy="3476624"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1666,14 +1773,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>209519</xdr:rowOff>
+      <xdr:rowOff>214312</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1688,16 +1795,15 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect b="6202"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4191000" y="11306175"/>
-          <a:ext cx="3962400" cy="3762344"/>
+          <a:off x="4202906" y="11568113"/>
+          <a:ext cx="3974307" cy="3529012"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1710,13 +1816,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>397680</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>190540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1754,13 +1860,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1810,13 +1916,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1876,14 +1982,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>38723</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>435290</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>214312</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1898,16 +2004,15 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect b="7181"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8296275" y="11563973"/>
-          <a:ext cx="3978590" cy="3780802"/>
+          <a:off x="8324850" y="11587786"/>
+          <a:ext cx="3992878" cy="3509339"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1920,13 +2025,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1977,13 +2082,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2296,10 +2401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R84"/>
+  <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2316,7 +2421,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2324,10 +2429,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
         <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2335,15 +2440,15 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2363,457 +2468,473 @@
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="8" spans="1:9">
       <c r="B8" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>96</v>
+      <c r="B9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="B10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="B11" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="19.5" thickBot="1">
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="5"/>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="19.5" thickBot="1">
-      <c r="B13" s="6"/>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" ht="19.5" thickBot="1">
+      <c r="B14" s="6"/>
+      <c r="C14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="B14" s="6"/>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
       </c>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="6"/>
-      <c r="G15" s="8" t="s">
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="6"/>
+      <c r="G16" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H16" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" ht="19.5" thickBot="1">
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="B17" t="s">
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:18" ht="19.5" thickBot="1">
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="B18" t="s">
         <v>0</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="19.5" thickBot="1">
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="19.5" thickBot="1">
+      <c r="B22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="19.5" thickBot="1">
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="19.5" thickBot="1">
-      <c r="B21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="5"/>
-      <c r="K21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="4" t="s">
+      <c r="I22" s="5"/>
+      <c r="K22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="R21" s="5"/>
-    </row>
-    <row r="22" spans="1:18" ht="19.5" thickBot="1">
-      <c r="B22" s="6"/>
-      <c r="C22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I22" s="7"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R22" s="7"/>
+      <c r="R22" s="5"/>
     </row>
     <row r="23" spans="1:18" ht="19.5" thickBot="1">
       <c r="B23" s="6"/>
-      <c r="C23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" t="s">
-        <v>20</v>
+      <c r="C23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="I23" s="7"/>
       <c r="K23" s="6"/>
+      <c r="L23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="R23" s="7"/>
     </row>
     <row r="24" spans="1:18" ht="19.5" thickBot="1">
       <c r="B24" s="6"/>
-      <c r="C24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="2" t="s">
-        <v>0</v>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" t="s">
+        <v>19</v>
       </c>
       <c r="I24" s="7"/>
       <c r="K24" s="6"/>
-      <c r="L24" s="2" t="s">
+      <c r="R24" s="7"/>
+    </row>
+    <row r="25" spans="1:18" ht="19.5" thickBot="1">
+      <c r="B25" s="6"/>
+      <c r="C25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="2" t="s">
+      <c r="G25" s="8"/>
+      <c r="H25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="R24" s="7"/>
-    </row>
-    <row r="25" spans="1:18" ht="19.5" thickBot="1">
-      <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="11"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="11"/>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="B26" t="s">
-        <v>65</v>
-      </c>
+      <c r="I25" s="7"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R25" s="7"/>
+    </row>
+    <row r="26" spans="1:18" ht="19.5" thickBot="1">
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="11"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="11"/>
     </row>
     <row r="27" spans="1:18">
       <c r="B27" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:18">
-      <c r="B28" s="14" t="s">
-        <v>83</v>
+      <c r="B28" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:18">
-      <c r="B29" s="18" t="s">
-        <v>87</v>
+      <c r="B29" s="14" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:18">
-      <c r="B30" t="s">
-        <v>35</v>
+      <c r="B30" s="18" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" t="s">
-        <v>98</v>
+      <c r="B31" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:18">
-      <c r="B32" t="s">
-        <v>23</v>
+      <c r="A32" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="B33" s="16" t="s">
-        <v>67</v>
+      <c r="B33" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="B34" t="s">
-        <v>66</v>
+      <c r="B34" s="16" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="B35" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="B36" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="B37" s="17" t="s">
-        <v>99</v>
+      <c r="B37" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" t="s">
-        <v>97</v>
+      <c r="B38" s="17" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="B39" t="s">
-        <v>24</v>
+      <c r="A39" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="B40" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="B41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K41" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="B42" t="s">
-        <v>68</v>
+        <v>27</v>
+      </c>
+      <c r="K42" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="B43" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="B44" t="s">
-        <v>28</v>
-      </c>
-      <c r="D44" t="s">
-        <v>26</v>
-      </c>
-      <c r="F44" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="B45" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="D45" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="B46" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="B47" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="2:16">
-      <c r="P49" t="s">
-        <v>91</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="B48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16">
+      <c r="P50" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="2:16">
       <c r="B64" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
       <c r="B65" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6">
       <c r="B66" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6">
       <c r="B67" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
       <c r="B68" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="B69" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="B70" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D70" s="12"/>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="B71" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="B72" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6">
+      <c r="B73" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F73" s="12"/>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F74" s="12"/>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="B75" t="s">
+        <v>36</v>
+      </c>
+      <c r="F75" s="12"/>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="B76" t="s">
+        <v>96</v>
+      </c>
+      <c r="F76" s="12"/>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6">
+      <c r="B78" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="B79" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="B80" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" t="s">
+        <v>38</v>
+      </c>
+      <c r="E81" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="69" spans="2:7">
-      <c r="B69" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7">
-      <c r="D70" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7">
-      <c r="B71" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7">
-      <c r="B72" s="17" t="s">
+      <c r="G81" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" t="s">
+        <v>39</v>
+      </c>
+      <c r="E82" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" t="s">
+        <v>95</v>
+      </c>
+      <c r="E83" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86" t="s">
         <v>86</v>
-      </c>
-      <c r="F72" s="12"/>
-    </row>
-    <row r="73" spans="2:7">
-      <c r="B73" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F73" s="12"/>
-    </row>
-    <row r="74" spans="2:7">
-      <c r="B74" t="s">
-        <v>41</v>
-      </c>
-      <c r="F74" s="12"/>
-    </row>
-    <row r="75" spans="2:7">
-      <c r="B75" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7">
-      <c r="B76" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7">
-      <c r="B77" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7">
-      <c r="B78" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7">
-      <c r="B79" t="s">
-        <v>43</v>
-      </c>
-      <c r="E79" t="s">
-        <v>46</v>
-      </c>
-      <c r="G79" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7">
-      <c r="B80" t="s">
-        <v>45</v>
-      </c>
-      <c r="E80" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5">
-      <c r="B81" t="s">
-        <v>44</v>
-      </c>
-      <c r="E81" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5">
-      <c r="B83" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5">
-      <c r="B84" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="258" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" scale="90" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6FE6346-A732-468A-A416-01242EEB8295}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2822,108 +2943,110 @@
     <col min="3" max="3" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" s="13"/>
       <c r="B1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="B7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
         <v>58</v>
       </c>
-      <c r="D7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+    </row>
+    <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="B11" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="B12" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="B13" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="B14" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="B15" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="B16" s="14" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="14" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="14" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="14" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="14" t="s">
-        <v>89</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="14" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="258" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" scale="90" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>